--- a/src/test/resources/testData/addEmployee.xlsx
+++ b/src/test/resources/testData/addEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puskaruprety/Desktop/MyProject/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9783C3-F444-8D43-9281-FF291C66CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83974BCE-DE71-9F42-8C7A-755589F37BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{39A51655-8A14-6049-9A65-9030A6110716}"/>
   </bookViews>
@@ -62,31 +62,31 @@
     <t>ms</t>
   </si>
   <si>
-    <t>/Users/puskaruprety/Desktop/image.jpeg</t>
-  </si>
-  <si>
-    <t>rceentury</t>
-  </si>
-  <si>
-    <t>hboraks</t>
-  </si>
-  <si>
-    <t>Henry#1234</t>
-  </si>
-  <si>
     <t>Roshan#1234</t>
   </si>
   <si>
-    <t>Roshans</t>
-  </si>
-  <si>
-    <t>Henrys</t>
-  </si>
-  <si>
     <t>Boraks</t>
   </si>
   <si>
     <t>Centurys</t>
+  </si>
+  <si>
+    <t>/Users/puskaruprety/Desktop/MyProject/src/test/resources/file/image.jpeg</t>
+  </si>
+  <si>
+    <t>Robinss</t>
+  </si>
+  <si>
+    <t>Harrys</t>
+  </si>
+  <si>
+    <t>Henry#12345</t>
+  </si>
+  <si>
+    <t>hborakss</t>
+  </si>
+  <si>
+    <t>rceenturyss</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,48 +487,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/addEmployee.xlsx
+++ b/src/test/resources/testData/addEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puskaruprety/Desktop/MyProject/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83974BCE-DE71-9F42-8C7A-755589F37BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D657EA26-60D2-304B-9215-7B48054AD9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{39A51655-8A14-6049-9A65-9030A6110716}"/>
   </bookViews>
@@ -71,22 +71,22 @@
     <t>Centurys</t>
   </si>
   <si>
-    <t>/Users/puskaruprety/Desktop/MyProject/src/test/resources/file/image.jpeg</t>
-  </si>
-  <si>
-    <t>Robinss</t>
-  </si>
-  <si>
-    <t>Harrys</t>
-  </si>
-  <si>
     <t>Henry#12345</t>
   </si>
   <si>
-    <t>hborakss</t>
-  </si>
-  <si>
-    <t>rceenturyss</t>
+    <t>/MyProject/src/test/resources/file/image.jpeg</t>
+  </si>
+  <si>
+    <t>Harrysd</t>
+  </si>
+  <si>
+    <t>Robinssd</t>
+  </si>
+  <si>
+    <t>hborakssd</t>
+  </si>
+  <si>
+    <t>rceenturyssd</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -496,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -519,16 +519,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/addEmployee.xlsx
+++ b/src/test/resources/testData/addEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puskaruprety/Desktop/MyProject/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D657EA26-60D2-304B-9215-7B48054AD9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC14BE-4E74-6B4F-817A-B275660A226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{39A51655-8A14-6049-9A65-9030A6110716}"/>
   </bookViews>
@@ -71,22 +71,22 @@
     <t>Centurys</t>
   </si>
   <si>
+    <t>/Users/puskaruprety/Desktop/MyProject/src/test/resources/file/image.jpeg</t>
+  </si>
+  <si>
+    <t>Harrys</t>
+  </si>
+  <si>
     <t>Henry#12345</t>
   </si>
   <si>
-    <t>/MyProject/src/test/resources/file/image.jpeg</t>
-  </si>
-  <si>
-    <t>Harrysd</t>
-  </si>
-  <si>
-    <t>Robinssd</t>
-  </si>
-  <si>
-    <t>hborakssd</t>
-  </si>
-  <si>
-    <t>rceenturyssd</t>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>rceenfturyss</t>
+  </si>
+  <si>
+    <t>hboradkss</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,10 +496,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -519,16 +519,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/addEmployee.xlsx
+++ b/src/test/resources/testData/addEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/puskaruprety/Desktop/MyProject/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC14BE-4E74-6B4F-817A-B275660A226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD72968-4186-DD49-81F5-FBA4DC3D1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{39A51655-8A14-6049-9A65-9030A6110716}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -62,31 +62,19 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Roshan#1234</t>
-  </si>
-  <si>
-    <t>Boraks</t>
-  </si>
-  <si>
     <t>Centurys</t>
   </si>
   <si>
     <t>/Users/puskaruprety/Desktop/MyProject/src/test/resources/file/image.jpeg</t>
   </si>
   <si>
-    <t>Harrys</t>
-  </si>
-  <si>
-    <t>Henry#12345</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>rceenfturyss</t>
-  </si>
-  <si>
-    <t>hboradkss</t>
+    <t>rceendfturyss</t>
+  </si>
+  <si>
+    <t>Roshadnss#1234</t>
+  </si>
+  <si>
+    <t>Robinsotsn</t>
   </si>
 </sst>
 </file>
@@ -449,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA4CC2-DB6A-7647-BF1D-C4991EC043FD}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,48 +475,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
